--- a/output/SAFRA_27782888000118.xlsx
+++ b/output/SAFRA_27782888000118.xlsx
@@ -834,10 +834,10 @@
         <v>44165</v>
       </c>
       <c r="B41">
-        <v>0.30259752</v>
+        <v>0.29988846</v>
       </c>
       <c r="C41">
-        <v>0.009022558080005849</v>
+        <v>0.006924056732335426</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_27782888000118.xlsx
+++ b/output/SAFRA_27782888000118.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA INFRAESTRUTURA PREMIUM PROFISSIONAL FUNDO DE INVESTIMENTO MULTIMERCADO CRÉDITO PRIVADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,458 +383,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42978</v>
       </c>
       <c r="B2">
-        <v>0.003304039999999953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43008</v>
       </c>
       <c r="B3">
-        <v>0.01028329000000006</v>
-      </c>
-      <c r="C3">
         <v>0.006956266218164586</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43039</v>
       </c>
       <c r="B4">
-        <v>0.01334804000000012</v>
-      </c>
-      <c r="C4">
         <v>0.003033555073448824</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43069</v>
       </c>
       <c r="B5">
-        <v>0.01548294000000006</v>
-      </c>
-      <c r="C5">
         <v>0.002106778634515249</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43100</v>
       </c>
       <c r="B6">
-        <v>0.0154177900000001</v>
-      </c>
-      <c r="C6">
         <v>-6.415666618675431e-05</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43131</v>
       </c>
       <c r="B7">
-        <v>0.03087472000000013</v>
-      </c>
-      <c r="C7">
         <v>0.01522223675045131</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43159</v>
       </c>
       <c r="B8">
-        <v>0.04196781000000005</v>
-      </c>
-      <c r="C8">
         <v>0.01076085171629781</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43190</v>
       </c>
       <c r="B9">
-        <v>0.05977334000000001</v>
-      </c>
-      <c r="C9">
         <v>0.01708836859365159</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43220</v>
       </c>
       <c r="B10">
-        <v>0.06212916999999996</v>
-      </c>
-      <c r="C10">
         <v>0.002222956467276216</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43251</v>
       </c>
       <c r="B11">
-        <v>0.04454187999999992</v>
-      </c>
-      <c r="C11">
         <v>-0.01655852272657199</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43281</v>
       </c>
       <c r="B12">
-        <v>0.04495095999999998</v>
-      </c>
-      <c r="C12">
         <v>0.0003916358049713686</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43312</v>
       </c>
       <c r="B13">
-        <v>0.0633952499999999</v>
-      </c>
-      <c r="C13">
         <v>0.01765086660143345</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43343</v>
       </c>
       <c r="B14">
-        <v>0.06622503999999996</v>
-      </c>
-      <c r="C14">
         <v>0.002661089561947882</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43373</v>
       </c>
       <c r="B15">
-        <v>0.06693002000000003</v>
-      </c>
-      <c r="C15">
         <v>0.0006611925002248942</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43404</v>
       </c>
       <c r="B16">
-        <v>0.09846136999999988</v>
-      </c>
-      <c r="C16">
         <v>0.02955334408905275</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43434</v>
       </c>
       <c r="B17">
-        <v>0.1028931</v>
-      </c>
-      <c r="C17">
         <v>0.004034488713972717</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43465</v>
       </c>
       <c r="B18">
-        <v>0.1215487</v>
-      </c>
-      <c r="C18">
         <v>0.01691514798669069</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43496</v>
       </c>
       <c r="B19">
-        <v>0.14134146</v>
-      </c>
-      <c r="C19">
         <v>0.01764770446437147</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43524</v>
       </c>
       <c r="B20">
-        <v>0.1478528400000001</v>
-      </c>
-      <c r="C20">
         <v>0.005705023630702133</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43555</v>
       </c>
       <c r="B21">
-        <v>0.1569878099999999</v>
-      </c>
-      <c r="C21">
         <v>0.007958311101970095</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43585</v>
       </c>
       <c r="B22">
-        <v>0.1688057999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01021444642532576</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43616</v>
       </c>
       <c r="B23">
-        <v>0.1889804399999999</v>
-      </c>
-      <c r="C23">
         <v>0.01726089997157776</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43646</v>
       </c>
       <c r="B24">
-        <v>0.21130889</v>
-      </c>
-      <c r="C24">
         <v>0.01877949312606031</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43677</v>
       </c>
       <c r="B25">
-        <v>0.2240365199999999</v>
-      </c>
-      <c r="C25">
         <v>0.01050733640698365</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43708</v>
       </c>
       <c r="B26">
-        <v>0.2163820999999999</v>
-      </c>
-      <c r="C26">
         <v>-0.006253424530176521</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43738</v>
       </c>
       <c r="B27">
-        <v>0.23680882</v>
-      </c>
-      <c r="C27">
         <v>0.01679301265613842</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43769</v>
       </c>
       <c r="B28">
-        <v>0.24247233</v>
-      </c>
-      <c r="C28">
         <v>0.004579131316350127</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43799</v>
       </c>
       <c r="B29">
-        <v>0.21824676</v>
-      </c>
-      <c r="C29">
         <v>-0.01949787485408228</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43830</v>
       </c>
       <c r="B30">
-        <v>0.2386897299999999</v>
-      </c>
-      <c r="C30">
         <v>0.01678064795345735</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43861</v>
       </c>
       <c r="B31">
-        <v>0.25077449</v>
-      </c>
-      <c r="C31">
         <v>0.009756083147633765</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43890</v>
       </c>
       <c r="B32">
-        <v>0.25807409</v>
-      </c>
-      <c r="C32">
         <v>0.005836064021421006</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43921</v>
       </c>
       <c r="B33">
-        <v>0.18930151</v>
-      </c>
-      <c r="C33">
         <v>-0.05466496810215693</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43951</v>
       </c>
       <c r="B34">
-        <v>0.2141737100000001</v>
-      </c>
-      <c r="C34">
         <v>0.0209132837979833</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43982</v>
       </c>
       <c r="B35">
-        <v>0.2371591799999999</v>
-      </c>
-      <c r="C35">
         <v>0.01893095675741474</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44012</v>
       </c>
       <c r="B36">
-        <v>0.2561017999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01531138458674342</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44043</v>
       </c>
       <c r="B37">
-        <v>0.2862025099999999</v>
-      </c>
-      <c r="C37">
         <v>0.02396359116753111</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44074</v>
       </c>
       <c r="B38">
-        <v>0.2869143600000001</v>
-      </c>
-      <c r="C38">
         <v>0.0005534509491824657</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44104</v>
       </c>
       <c r="B39">
-        <v>0.28014081</v>
-      </c>
-      <c r="C39">
         <v>-0.005263403852296844</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44135</v>
       </c>
       <c r="B40">
-        <v>0.2909498500000001</v>
-      </c>
-      <c r="C40">
         <v>0.008443633634334313</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44165</v>
       </c>
       <c r="B41">
-        <v>0.29988846</v>
-      </c>
-      <c r="C41">
-        <v>0.006924056732335426</v>
+        <v>0.006316968858240291</v>
       </c>
     </row>
   </sheetData>
